--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -513,12 +513,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Bag 5-6</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -540,24 +556,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,20 +627,52 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 2</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -602,16 +690,40 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -3944,7 +3944,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>?? AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3983,7 +3983,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>9:00 AM START</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4020,7 +4020,11 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SCAN-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -4055,7 +4059,11 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CORK AND BOTTLE LIQUORS, JANESVILLE</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4090,7 +4098,11 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1418 W. MEMORIAL DR</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -4125,7 +4137,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/X4LfoEZLXvGDiMRi6</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -4198,8 +4214,16 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -4229,7 +4253,11 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -4256,7 +4284,11 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -3944,7 +3944,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>?? AM OFFICE MEET</t>
+          <t>7:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4224,7 +4224,12 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry, Equip</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4258,7 +4263,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -4289,8 +4298,16 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -4332,9 +4349,21 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
@@ -4434,7 +4463,11 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -4465,8 +4498,16 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>A little after Liq store</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -4300,7 +4300,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4349,21 +4349,9 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
@@ -4432,7 +4420,11 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9:00 AM START</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -4465,7 +4457,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -4500,14 +4492,10 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>A little after Liq store</t>
-        </is>
-      </c>
+          <t>SALE INVENTORY</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
@@ -4537,7 +4525,11 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CONTCT IS RAJ (THE BUYER)</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -4568,7 +4560,11 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>CLASS ONE LIQUOR, WEST ALLIS</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -4599,7 +4595,11 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8423 W. CLEVELAND AVE</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -4630,7 +4630,11 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/t8quKk5dqeQ7J11s7</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -4691,9 +4695,21 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
@@ -4722,7 +4738,11 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -4753,9 +4773,21 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
@@ -4847,7 +4879,11 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4878,8 +4914,16 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>A little after Liq store</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -4743,7 +4743,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -2665,8 +2665,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-Park in parking structure D
--Enter using skywalk(level 2) and take elevator to ground floor</t>
+          <t>-Park in parking structure D</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2716,7 +2715,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-Enter using skywalk(level 2) and take elevator to ground floor</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -1155,7 +1155,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -2825,21 +2825,9 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
@@ -2928,7 +2916,11 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -2961,7 +2953,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3004,7 +2996,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3047,7 +3039,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3086,7 +3078,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3137,7 +3129,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3188,7 +3180,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3227,7 +3219,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3266,7 +3258,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3305,7 +3297,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3340,7 +3332,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3387,7 +3379,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3434,7 +3426,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3477,7 +3469,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3520,7 +3512,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3561,11 +3553,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3607,9 +3595,21 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3652,19 +3652,15 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3701,16 +3697,8 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3813,7 +3801,11 @@
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3862,7 +3854,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3893,7 +3885,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3924,7 +3916,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1150, KENOSHA</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3963,7 +3955,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1150, KENOSHA</t>
+          <t>10400 75TH ST</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4002,7 +3994,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>10400 75TH ST</t>
+          <t>https://goo.gl/maps/K5ZSZyLo7jH2</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4041,7 +4033,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/K5ZSZyLo7jH2</t>
+          <t>9:30 AM START</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4080,7 +4072,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>9:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4119,7 +4111,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA VISION #1150, KENOSHA</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4154,7 +4146,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>AURORA VISION #1150, KENOSHA</t>
+          <t>6815 118TH AVE</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4197,7 +4189,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>6815 118TH AVE</t>
+          <t>https://goo.gl/maps/zRYCmicZWfv</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4239,11 +4231,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zRYCmicZWfv</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -4277,9 +4265,22 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4322,20 +4323,15 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -4364,16 +4360,8 @@
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -3885,7 +3885,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3878,9 +3878,21 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
@@ -3945,11 +3957,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -3986,7 +3994,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4025,7 +4033,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4064,7 +4072,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4103,7 +4111,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4140,7 +4148,11 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4170,21 +4182,9 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
@@ -4226,9 +4226,21 @@
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4314,11 +4326,7 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
@@ -4355,7 +4363,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4386,7 +4394,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4421,7 +4429,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4456,7 +4464,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4491,7 +4499,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4526,7 +4534,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4561,7 +4569,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4596,7 +4604,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4631,7 +4639,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4662,7 +4670,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4705,7 +4713,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -4744,7 +4752,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4787,7 +4795,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4818,7 +4826,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -4849,7 +4857,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -4884,7 +4892,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -4923,7 +4931,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -4954,7 +4962,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -4985,7 +4993,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5014,7 +5022,11 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -5040,21 +5052,9 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -5081,15 +5081,19 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -5116,12 +5120,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5140,6 +5144,41 @@
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -1515,10 +1515,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2498,8 +2502,16 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2585,11 +2597,7 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2638,7 +2646,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2690,7 +2698,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2741,7 +2749,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2788,7 +2796,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2832,7 +2840,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2883,7 +2891,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2926,7 +2934,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2961,7 +2969,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3004,7 +3012,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3045,7 +3053,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3083,21 +3095,9 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3136,17 +3136,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3185,9 +3185,21 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -4336,7 +4348,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4368,8 +4380,16 @@
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -1347,7 +1347,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1410,13 +1410,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1503,10 +1502,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1588,14 +1592,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1926,13 +1926,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx - 1st Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1982,12 +1981,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx - 1st Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2234,13 +2234,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2287,9 +2286,22 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2385,11 +2397,7 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2434,7 +2442,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:45 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2485,7 +2493,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2532,7 +2540,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2575,7 +2583,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2622,7 +2630,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2673,7 +2681,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-Park in parking structure D</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2725,7 +2733,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-Enter using skywalk(level 2) and take elevator to ground floor</t>
+          <t>-Park in parking structure D</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2774,7 +2782,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-Enter using skywalk(level 2) and take elevator to ground floor</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -2816,22 +2828,9 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -2874,15 +2873,20 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2913,12 +2917,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2954,8 +2958,16 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2997,8 +3009,16 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3037,11 +3057,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3082,7 +3098,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3121,7 +3137,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3172,7 +3188,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5700 WEST CAPITOL DR</t>
+          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3223,7 +3239,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
+          <t>5700 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3262,7 +3278,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3301,7 +3317,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5:30 am meet for Carlie/Trevor.  (Trevor using car Wed/Thur)</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3338,7 +3354,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Carlie/Trevor.  (Trevor using car Wed/Thur)</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3372,21 +3392,9 @@
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Wht Camry avaialble, Equip</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
@@ -3421,17 +3429,17 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>w/ Trevor</t>
+          <t>Wht Camry avaialble, Equip</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3468,15 +3476,19 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>w/ Trevor</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
@@ -3511,7 +3523,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3554,7 +3566,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3593,7 +3605,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3648,7 +3660,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3695,7 +3707,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3746,7 +3758,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3798,7 +3810,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3849,7 +3861,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3892,7 +3904,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">

--- a/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
+++ b/08-24-25 to 08-30-25 Milwaukee Schedule.xlsx
@@ -730,7 +730,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Optima at Lutters for service</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1460,7 +1464,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>Wht Camry, Equip</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
